--- a/data/trans_orig/P22$ss-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P22$ss-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7A5BA1-C086-48ED-9B9D-C00BF2A8E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBDF472-A902-455F-B8D8-6286D10C8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F9E0B0A-01EF-4CF0-987B-1BA4C5F3C9BE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8DEA1208-DFCC-4C02-B48A-B12D6D40EBE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="727">
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="781">
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -62,7 +62,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Servicios Sociales</t>
@@ -239,7 +239,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>96,1%</t>
@@ -395,7 +395,7 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>95,81%</t>
@@ -530,7 +530,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>92,83%</t>
@@ -653,7 +653,7 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>96,88%</t>
@@ -776,1450 +776,1612 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,67%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2012</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2016</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2023</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>7,68%</t>
   </si>
 </sst>
 </file>
@@ -2631,8 +2793,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B3A6B7-1590-465A-B0F5-07C6904F2020}">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2161249A-6ED0-446C-AE3C-47073552885E}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3920,28 +4082,28 @@
         <v>255</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3950,31 +4112,31 @@
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="G41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3983,31 +4145,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="I42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="K42" s="7" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -4016,13 +4178,13 @@
         <v>48</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>53</v>
@@ -4031,16 +4193,16 @@
         <v>58</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -4055,25 +4217,25 @@
         <v>58</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -4082,13 +4244,13 @@
         <v>63</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>53</v>
@@ -4097,27 +4259,27 @@
         <v>58</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>279</v>
@@ -4129,13 +4291,13 @@
         <v>281</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>284</v>
@@ -4150,28 +4312,28 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>291</v>
@@ -4183,31 +4345,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -4216,31 +4378,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -4249,31 +4411,31 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>303</v>
+        <v>58</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -4282,31 +4444,31 @@
         <v>57</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>307</v>
+        <v>58</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -4315,45 +4477,279 @@
         <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="G59" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>311</v>
+      <c r="K59" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4366,8 +4762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87B059-1F37-4C77-B2D3-2FD2C967BBCB}">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C118BCC-2D39-4A45-90E4-706406813EF3}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4383,7 +4779,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4457,28 +4853,28 @@
         <v>122</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4487,31 +4883,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>232</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4523,13 +4919,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>53</v>
@@ -4538,10 +4934,10 @@
         <v>156</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>79</v>
@@ -4553,31 +4949,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4592,7 +4988,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>60</v>
@@ -4610,7 +5006,7 @@
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4619,13 +5015,13 @@
         <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>53</v>
@@ -4634,7 +5030,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>107</v>
@@ -4643,7 +5039,7 @@
         <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4658,10 +5054,10 @@
         <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>53</v>
@@ -4687,28 +5083,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>205</v>
@@ -4726,25 +5122,25 @@
         <v>243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>137</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4753,7 +5149,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>43</v>
@@ -4762,7 +5158,7 @@
         <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>40</v>
@@ -4774,10 +5170,10 @@
         <v>152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4786,31 +5182,31 @@
         <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4819,22 +5215,22 @@
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>113</v>
@@ -4843,7 +5239,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4852,7 +5248,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>53</v>
@@ -4867,16 +5263,16 @@
         <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4894,7 +5290,7 @@
         <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -4920,31 +5316,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4953,7 +5349,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>105</v>
@@ -4962,19 +5358,19 @@
         <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>47</v>
@@ -4986,31 +5382,31 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>243</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5019,31 +5415,31 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5055,13 +5451,13 @@
         <v>227</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>107</v>
@@ -5070,7 +5466,7 @@
         <v>113</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>242</v>
@@ -5127,7 +5523,7 @@
         <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>53</v>
@@ -5156,28 +5552,28 @@
         <v>166</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5186,31 +5582,31 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5219,31 +5615,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>202</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>137</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5255,28 +5651,28 @@
         <v>194</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5285,13 +5681,13 @@
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>109</v>
@@ -5303,13 +5699,13 @@
         <v>92</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>267</v>
+        <v>440</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5324,7 +5720,7 @@
         <v>58</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>53</v>
@@ -5333,7 +5729,7 @@
         <v>58</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>53</v>
@@ -5342,7 +5738,7 @@
         <v>58</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5357,7 +5753,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>30</v>
@@ -5366,16 +5762,16 @@
         <v>53</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5386,31 +5782,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5419,22 +5815,22 @@
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>177</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>261</v>
+        <v>456</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>45</v>
@@ -5443,7 +5839,7 @@
         <v>198</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5452,7 +5848,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>261</v>
+        <v>456</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>29</v>
@@ -5461,19 +5857,19 @@
         <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>103</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>223</v>
@@ -5488,28 +5884,28 @@
         <v>49</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>189</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>270</v>
+        <v>462</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5518,13 +5914,13 @@
         <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>65</v>
@@ -5533,13 +5929,13 @@
         <v>53</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>239</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>182</v>
@@ -5566,7 +5962,7 @@
         <v>58</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>53</v>
@@ -5590,22 +5986,22 @@
         <v>53</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>158</v>
@@ -5619,31 +6015,31 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>467</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>314</v>
+        <v>470</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>126</v>
+        <v>473</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -5652,31 +6048,31 @@
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>458</v>
+        <v>217</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>459</v>
+        <v>138</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>103</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -5685,31 +6081,31 @@
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>20</v>
+        <v>477</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="H41" s="7" t="s">
-        <v>458</v>
+        <v>304</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>382</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -5718,31 +6114,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -5751,13 +6147,13 @@
         <v>48</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>426</v>
+        <v>329</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>464</v>
+        <v>137</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>53</v>
@@ -5766,16 +6162,16 @@
         <v>58</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -5790,7 +6186,7 @@
         <v>58</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>53</v>
@@ -5799,7 +6195,7 @@
         <v>58</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>53</v>
@@ -5808,7 +6204,7 @@
         <v>58</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -5823,7 +6219,7 @@
         <v>58</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>53</v>
@@ -5832,7 +6228,7 @@
         <v>58</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>53</v>
@@ -5841,42 +6237,42 @@
         <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>468</v>
+        <v>361</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>172</v>
+        <v>486</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>119</v>
+        <v>366</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -5885,31 +6281,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>474</v>
+        <v>157</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>321</v>
+        <v>458</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -5918,31 +6314,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>477</v>
+        <v>53</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>478</v>
+        <v>194</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>410</v>
+        <v>156</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>479</v>
+        <v>224</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>353</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -5951,31 +6347,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>480</v>
+        <v>31</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>291</v>
+        <v>425</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>147</v>
+        <v>478</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>466</v>
+        <v>155</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -5984,31 +6380,31 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>483</v>
+        <v>59</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>484</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -6017,31 +6413,31 @@
         <v>57</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>307</v>
+        <v>58</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>485</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>486</v>
+        <v>53</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>487</v>
+        <v>58</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>427</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -6050,45 +6446,279 @@
         <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>487</v>
+        <v>53</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="H59" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="J59" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>311</v>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6101,8 +6731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B545C6-AE8E-4B85-B788-F2A4D7B5991A}">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B702F3B1-F389-4D81-AC5E-EFEC7D5E0DA1}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6118,7 +6748,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6189,28 +6819,28 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -6231,19 +6861,19 @@
         <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>136</v>
@@ -6255,13 +6885,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>160</v>
@@ -6270,10 +6900,10 @@
         <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -6288,31 +6918,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>502</v>
+        <v>289</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6321,7 +6951,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>53</v>
@@ -6330,7 +6960,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>53</v>
@@ -6339,10 +6969,10 @@
         <v>198</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>244</v>
@@ -6369,7 +6999,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>53</v>
@@ -6402,7 +7032,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>53</v>
@@ -6425,28 +7055,28 @@
         <v>119</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6461,25 +7091,25 @@
         <v>138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>203</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6488,13 +7118,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>215</v>
@@ -6503,13 +7133,13 @@
         <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>88</v>
@@ -6527,25 +7157,25 @@
         <v>105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6554,13 +7184,13 @@
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>272</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>159</v>
@@ -6569,7 +7199,7 @@
         <v>53</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>108</v>
@@ -6578,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6587,10 +7217,10 @@
         <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>230</v>
@@ -6602,7 +7232,7 @@
         <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>524</v>
+        <v>257</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>111</v>
@@ -6655,31 +7285,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6688,13 +7318,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>91</v>
@@ -6703,13 +7333,13 @@
         <v>92</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>263</v>
+        <v>561</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>563</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>145</v>
@@ -6724,28 +7354,28 @@
         <v>104</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>113</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6754,13 +7384,13 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
@@ -6769,16 +7399,16 @@
         <v>132</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -6787,19 +7417,19 @@
         <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>43</v>
@@ -6811,7 +7441,7 @@
         <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6820,13 +7450,13 @@
         <v>57</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>53</v>
@@ -6838,13 +7468,13 @@
         <v>157</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6859,7 +7489,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>53</v>
@@ -6888,31 +7518,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6921,10 +7551,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>127</v>
@@ -6936,16 +7566,16 @@
         <v>64</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6954,31 +7584,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>230</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6987,31 +7617,31 @@
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7020,7 +7650,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>161</v>
@@ -7038,13 +7668,13 @@
         <v>198</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7053,13 +7683,13 @@
         <v>57</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>53</v>
@@ -7077,7 +7707,7 @@
         <v>53</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7092,16 +7722,16 @@
         <v>53</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>157</v>
@@ -7110,7 +7740,7 @@
         <v>110</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>524</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7121,31 +7751,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -7154,7 +7784,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>243</v>
@@ -7166,16 +7796,16 @@
         <v>185</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>174</v>
@@ -7190,7 +7820,7 @@
         <v>201</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>134</v>
@@ -7199,19 +7829,19 @@
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>524</v>
+        <v>257</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -7220,25 +7850,25 @@
         <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>83</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>579</v>
+        <v>479</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>32</v>
@@ -7259,25 +7889,25 @@
         <v>53</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>461</v>
+        <v>563</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -7292,7 +7922,7 @@
         <v>58</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>53</v>
@@ -7301,7 +7931,7 @@
         <v>58</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>53</v>
@@ -7334,10 +7964,10 @@
         <v>58</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>53</v>
@@ -7354,31 +7984,31 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>70</v>
+        <v>612</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>584</v>
+        <v>283</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>348</v>
+        <v>613</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>285</v>
+        <v>614</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>585</v>
+        <v>393</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>586</v>
+        <v>67</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>283</v>
+        <v>615</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -7387,31 +8017,31 @@
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>181</v>
+        <v>617</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>464</v>
+        <v>39</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>448</v>
+        <v>202</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -7420,31 +8050,31 @@
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>54</v>
+        <v>563</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>588</v>
+        <v>423</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>590</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -7453,31 +8083,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>477</v>
+        <v>587</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>352</v>
+        <v>618</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>255</v>
+        <v>619</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>220</v>
+        <v>589</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>104</v>
+        <v>620</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>511</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -7492,7 +8122,7 @@
         <v>58</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>53</v>
@@ -7501,7 +8131,7 @@
         <v>58</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>53</v>
@@ -7510,7 +8140,7 @@
         <v>58</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -7525,25 +8155,25 @@
         <v>58</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>400</v>
+        <v>157</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>399</v>
+        <v>156</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>591</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -7558,7 +8188,7 @@
         <v>58</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>53</v>
@@ -7567,7 +8197,7 @@
         <v>58</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>53</v>
@@ -7576,42 +8206,42 @@
         <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>530</v>
+        <v>622</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>595</v>
+        <v>123</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>406</v>
+        <v>626</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -7620,31 +8250,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>49</v>
+        <v>371</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>419</v>
+        <v>620</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>442</v>
+        <v>59</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -7653,31 +8283,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>37</v>
+        <v>630</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>137</v>
+        <v>550</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>601</v>
+        <v>53</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>243</v>
+        <v>631</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>602</v>
+        <v>440</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>136</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -7686,31 +8316,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>288</v>
+        <v>602</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>603</v>
+        <v>243</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>576</v>
+        <v>290</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>606</v>
+        <v>135</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>607</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -7719,31 +8349,31 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>608</v>
+        <v>53</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -7752,31 +8382,31 @@
         <v>57</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>486</v>
+        <v>58</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>273</v>
+        <v>414</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>487</v>
+        <v>53</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>107</v>
+        <v>443</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>308</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -7785,45 +8415,279 @@
         <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>485</v>
+        <v>58</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>485</v>
+        <v>58</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>369</v>
+        <v>550</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>307</v>
+        <v>58</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>311</v>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -7836,8 +8700,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9FDD80-A726-468C-BCE8-339714D14A3A}">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2264AE-A5D9-4C11-9FDC-070AAD230199}">
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7853,7 +8717,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7924,31 +8788,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>614</v>
+        <v>282</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>615</v>
+        <v>652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7957,31 +8821,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>575</v>
+        <v>411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>514</v>
+        <v>656</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>657</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7990,31 +8854,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>619</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>620</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>659</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>622</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -8023,31 +8887,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>557</v>
+        <v>234</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>86</v>
+        <v>639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>661</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>664</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -8056,31 +8920,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>514</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>555</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>154</v>
+        <v>412</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -8089,13 +8953,13 @@
         <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>53</v>
@@ -8107,13 +8971,13 @@
         <v>150</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -8128,25 +8992,25 @@
         <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>64</v>
+        <v>610</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -8157,31 +9021,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -8190,31 +9054,31 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>591</v>
+        <v>102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>657</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>266</v>
+        <v>639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>102</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -8223,31 +9087,31 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -8256,31 +9120,31 @@
         <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>648</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -8289,31 +9153,31 @@
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>410</v>
+        <v>151</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -8331,22 +9195,22 @@
         <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>651</v>
+        <v>263</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>30</v>
+        <v>530</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -8364,22 +9228,22 @@
         <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>266</v>
+        <v>685</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -8390,31 +9254,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>654</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>348</v>
+        <v>690</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>657</v>
+        <v>519</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -8423,31 +9287,31 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>409</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>243</v>
+        <v>693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>658</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>497</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -8456,31 +9320,31 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>446</v>
+        <v>694</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>642</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>540</v>
+        <v>317</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>156</v>
+        <v>696</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -8489,31 +9353,31 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>660</v>
+        <v>697</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>661</v>
+        <v>378</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -8522,10 +9386,10 @@
         <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>559</v>
+        <v>705</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>220</v>
@@ -8534,19 +9398,19 @@
         <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>461</v>
+        <v>696</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>442</v>
+        <v>706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -8561,25 +9425,25 @@
         <v>58</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>530</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -8588,31 +9452,31 @@
         <v>63</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>591</v>
+        <v>349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -8623,31 +9487,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>670</v>
+        <v>708</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>671</v>
+        <v>302</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>672</v>
+        <v>709</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>374</v>
+        <v>711</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>657</v>
+        <v>558</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8656,31 +9520,31 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>147</v>
+        <v>477</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>676</v>
+        <v>269</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>677</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>669</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>36</v>
+        <v>529</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>631</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8689,31 +9553,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>496</v>
+        <v>92</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>229</v>
+        <v>620</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>479</v>
+        <v>83</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>288</v>
+        <v>714</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>555</v>
+        <v>218</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>577</v>
+        <v>76</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>544</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8722,31 +9586,31 @@
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>679</v>
+        <v>189</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>680</v>
+        <v>524</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>686</v>
+        <v>222</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8755,31 +9619,31 @@
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>480</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>386</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>559</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8788,31 +9652,31 @@
         <v>57</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>591</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8821,31 +9685,31 @@
         <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8856,31 +9720,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>380</v>
+        <v>723</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>689</v>
+        <v>578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>690</v>
+        <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>172</v>
+        <v>727</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>694</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8889,31 +9753,31 @@
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>357</v>
+        <v>728</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>496</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>127</v>
+        <v>572</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>502</v>
+        <v>729</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8922,31 +9786,31 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>263</v>
+        <v>730</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>278</v>
+        <v>693</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>100</v>
+        <v>684</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>638</v>
+        <v>731</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>398</v>
+        <v>507</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8955,31 +9819,31 @@
         <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>664</v>
+        <v>733</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>696</v>
+        <v>463</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>643</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8988,31 +9852,31 @@
         <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>564</v>
+        <v>196</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>426</v>
+        <v>200</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>241</v>
+        <v>565</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -9021,31 +9885,31 @@
         <v>57</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>33</v>
+        <v>358</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -9060,25 +9924,25 @@
         <v>53</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>704</v>
+        <v>478</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>582</v>
+        <v>359</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>197</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -9089,31 +9953,31 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>550</v>
+        <v>739</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>122</v>
+        <v>742</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>374</v>
+        <v>744</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>708</v>
+        <v>745</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>345</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -9122,31 +9986,31 @@
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>297</v>
+        <v>747</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>498</v>
+        <v>223</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>602</v>
+        <v>439</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>19</v>
+        <v>749</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>422</v>
+        <v>141</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>286</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -9155,31 +10019,31 @@
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>710</v>
+        <v>140</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>556</v>
+        <v>477</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>387</v>
+        <v>750</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>230</v>
+        <v>751</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>417</v>
+        <v>536</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>352</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -9188,31 +10052,31 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>173</v>
+        <v>752</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>713</v>
+        <v>35</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>173</v>
+        <v>436</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>714</v>
+        <v>549</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -9221,31 +10085,31 @@
         <v>48</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>55</v>
+        <v>508</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>161</v>
+        <v>512</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>449</v>
+        <v>111</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>486</v>
+        <v>53</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -9254,31 +10118,31 @@
         <v>57</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>505</v>
+        <v>60</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>505</v>
+        <v>53</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>342</v>
+        <v>60</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>505</v>
+        <v>328</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -9293,60 +10157,60 @@
         <v>58</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>427</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>454</v>
+        <v>757</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>570</v>
+        <v>758</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>706</v>
+        <v>534</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>470</v>
+        <v>760</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>717</v>
+        <v>598</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>718</v>
+        <v>205</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>761</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>719</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -9358,28 +10222,28 @@
         <v>42</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>293</v>
+        <v>640</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>241</v>
+        <v>537</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>148</v>
+        <v>372</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>151</v>
+        <v>492</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -9388,31 +10252,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>134</v>
+        <v>762</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>574</v>
+        <v>61</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>357</v>
+        <v>763</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>75</v>
+        <v>764</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -9421,31 +10285,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>720</v>
+        <v>602</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>722</v>
+        <v>766</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>723</v>
+        <v>276</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>95</v>
+        <v>768</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>725</v>
+        <v>188</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -9454,31 +10318,31 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>371</v>
+        <v>65</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>459</v>
+        <v>202</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>266</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -9487,31 +10351,31 @@
         <v>57</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>485</v>
+        <v>58</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -9520,45 +10384,279 @@
         <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>311</v>
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
